--- a/GSTComputationTemplate.xlsx
+++ b/GSTComputationTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\GSTCourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KsDocuments\GSTCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>COMPUTATION OF GST</t>
   </si>
@@ -31,12 +31,6 @@
   </si>
   <si>
     <t>Paid</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Purchases</t>
   </si>
   <si>
     <t>Tax</t>
@@ -209,6 +203,27 @@
   <si>
     <t>Less: Paid in Apr 25</t>
   </si>
+  <si>
+    <t>Sales Details</t>
+  </si>
+  <si>
+    <t>Purchase Details</t>
+  </si>
+  <si>
+    <t>B2B</t>
+  </si>
+  <si>
+    <t>B2C</t>
+  </si>
+  <si>
+    <t>CDNR</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
 </sst>
 </file>
 
@@ -338,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -449,11 +464,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -568,11 +676,7 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -606,7 +710,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -614,7 +717,6 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -664,9 +766,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -706,9 +805,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -736,6 +833,82 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,9 +1129,7 @@
   </sheetPr>
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -972,7 +1143,8 @@
     <col min="8" max="8" width="8.140625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="12" width="6.42578125" style="74" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="70" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="70" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" customWidth="1"/>
     <col min="14" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="5.7109375" customWidth="1"/>
@@ -988,7 +1160,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1032,60 +1204,60 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="96">
+      <c r="M2" s="95"/>
+      <c r="N2" s="91">
         <f t="shared" ref="N2:AA2" si="1">SUM(N5:N16)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="96">
+      <c r="O2" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P2" s="96">
+      <c r="P2" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q2" s="96">
+      <c r="Q2" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R2" s="96">
+      <c r="R2" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S2" s="96">
+      <c r="S2" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T2" s="97">
+      <c r="T2" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U2" s="97">
+      <c r="U2" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V2" s="98">
+      <c r="V2" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W2" s="98">
+      <c r="W2" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X2" s="98">
+      <c r="X2" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y2" s="99">
+      <c r="Y2" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z2" s="99">
+      <c r="Z2" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA2" s="99">
+      <c r="AA2" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1101,133 +1273,133 @@
       <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="94">
+      <c r="G3" s="89">
         <f t="shared" ref="G3:H3" si="2">SUM(G6:G20)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="94">
+      <c r="H3" s="89">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I3" s="95">
+      <c r="I3" s="90">
         <f>SUM(I6:I17)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="M3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="11"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="11"/>
-      <c r="T3" s="13" t="s">
-        <v>5</v>
+      <c r="T3" s="113" t="s">
+        <v>62</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
       <c r="F4" s="16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="119" t="s">
-        <v>17</v>
+      <c r="K4" s="105"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="112" t="s">
+        <v>15</v>
       </c>
       <c r="N4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="T4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="W4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="X4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="Y4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" s="14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="I5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="J5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="K5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="75" t="s">
-        <v>22</v>
+      <c r="L5" s="71" t="s">
+        <v>20</v>
       </c>
       <c r="M5" s="27">
         <v>45383</v>
@@ -1264,7 +1436,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1277,7 +1449,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
-      <c r="L6" s="75"/>
+      <c r="L6" s="71"/>
       <c r="M6" s="27">
         <v>45413</v>
       </c>
@@ -1313,7 +1485,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1326,8 +1498,8 @@
       <c r="H7" s="34"/>
       <c r="I7" s="36"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="75"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="71"/>
       <c r="M7" s="27">
         <v>45444</v>
       </c>
@@ -1363,12 +1535,12 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="92">
-        <f>SUM(C20:E20)</f>
+      <c r="D8" s="87">
+        <f>SUM(C16:E16)</f>
         <v>0</v>
       </c>
       <c r="E8" s="22"/>
@@ -1379,8 +1551,8 @@
       <c r="H8" s="34"/>
       <c r="I8" s="36"/>
       <c r="J8" s="37"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="75"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="71"/>
       <c r="M8" s="27">
         <v>45474</v>
       </c>
@@ -1416,11 +1588,11 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="92">
+      <c r="D9" s="87">
         <f>D6-D7-D8</f>
         <v>0</v>
       </c>
@@ -1432,8 +1604,8 @@
       <c r="H9" s="34"/>
       <c r="I9" s="36"/>
       <c r="J9" s="37"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="75"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="71"/>
       <c r="M9" s="27">
         <v>45505</v>
       </c>
@@ -1480,8 +1652,8 @@
       <c r="H10" s="34"/>
       <c r="I10" s="36"/>
       <c r="J10" s="37"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="75"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="71"/>
       <c r="M10" s="27">
         <v>45536</v>
       </c>
@@ -1514,19 +1686,19 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>13</v>
       </c>
       <c r="F11" s="33">
         <v>45536</v>
@@ -1535,8 +1707,8 @@
       <c r="H11" s="34"/>
       <c r="I11" s="36"/>
       <c r="J11" s="37"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="75"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="71"/>
       <c r="M11" s="27">
         <v>45566</v>
       </c>
@@ -1583,8 +1755,8 @@
       <c r="H12" s="34"/>
       <c r="I12" s="36"/>
       <c r="J12" s="37"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="75"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="27">
         <v>45597</v>
       </c>
@@ -1633,7 +1805,7 @@
       <c r="H13" s="35"/>
       <c r="I13" s="44"/>
       <c r="J13" s="37"/>
-      <c r="L13" s="75"/>
+      <c r="L13" s="71"/>
       <c r="M13" s="27">
         <v>45627</v>
       </c>
@@ -1680,7 +1852,7 @@
       <c r="H14" s="34"/>
       <c r="I14" s="36"/>
       <c r="J14" s="37"/>
-      <c r="L14" s="75"/>
+      <c r="L14" s="71"/>
       <c r="M14" s="27">
         <v>45658</v>
       </c>
@@ -1715,7 +1887,7 @@
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="21"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1727,8 +1899,8 @@
       <c r="H15" s="34"/>
       <c r="I15" s="36"/>
       <c r="J15" s="37"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="75"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="71"/>
       <c r="M15" s="27">
         <v>45689</v>
       </c>
@@ -1763,11 +1935,25 @@
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="21"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="22"/>
+      <c r="A16" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="87">
+        <f>SUM(B13:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="87">
+        <f>SUM(C13:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="87">
+        <f>SUM(D13:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="88">
+        <f>SUM(E13:E14)</f>
+        <v>0</v>
+      </c>
       <c r="F16" s="33">
         <v>45689</v>
       </c>
@@ -1775,8 +1961,8 @@
       <c r="H16" s="34"/>
       <c r="I16" s="36"/>
       <c r="J16" s="37"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="75"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="71"/>
       <c r="M16" s="27">
         <v>45717</v>
       </c>
@@ -1811,7 +1997,7 @@
       </c>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="21"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1823,8 +2009,8 @@
       <c r="H17" s="34"/>
       <c r="I17" s="36"/>
       <c r="J17" s="37"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="75"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="71"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -1841,7 +2027,9 @@
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="21"/>
+      <c r="A18" s="114" t="s">
+        <v>63</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1851,8 +2039,8 @@
       <c r="H18" s="34"/>
       <c r="I18" s="36"/>
       <c r="J18" s="37"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="75"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="71"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -1869,7 +2057,9 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="21"/>
+      <c r="A19" s="114" t="s">
+        <v>64</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1879,8 +2069,8 @@
       <c r="H19" s="49"/>
       <c r="I19" s="36"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="75"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="71"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -1897,31 +2087,15 @@
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="92">
-        <f t="shared" ref="B20:E20" si="10">SUM(B13:B14)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="92">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="92">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="93">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="A20" s="114" t="s">
+        <v>65</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="49"/>
       <c r="H20" s="49"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
-      <c r="L20" s="75"/>
+      <c r="L20" s="71"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -1938,29 +2112,43 @@
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="101">
-        <f t="shared" ref="G21:I21" si="11">SUM(G6:G20)</f>
+      <c r="A21" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="97">
+        <f>SUM(B18:B20)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="101">
-        <f t="shared" si="11"/>
+      <c r="C21" s="97">
+        <f>SUM(C18:C20)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="101">
-        <f t="shared" si="11"/>
+      <c r="D21" s="97">
+        <f>SUM(D18:D20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="116"/>
+      <c r="E21" s="97">
+        <f>SUM(E18:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="96">
+        <f t="shared" ref="G21:I21" si="10">SUM(G6:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="52"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="109"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -1981,7 +2169,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="55"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
@@ -2003,21 +2191,25 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1">
       <c r="A23" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
       <c r="M23" s="20"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2036,38 +2228,38 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="92">
+        <v>21</v>
+      </c>
+      <c r="B24" s="87">
         <f>SUM(C24:D24)</f>
         <v>0</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="57" t="s">
+      <c r="F24" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="57" t="s">
+      <c r="J24" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="K24" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="57" t="s">
+      <c r="L24" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="57" t="s">
+      <c r="M24" s="56" t="s">
         <v>36</v>
-      </c>
-      <c r="L24" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="58" t="s">
-        <v>38</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2086,9 +2278,9 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1">
       <c r="A25" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="92">
+        <v>37</v>
+      </c>
+      <c r="B25" s="87">
         <f>C41*-1</f>
         <v>0</v>
       </c>
@@ -2096,12 +2288,12 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
       <c r="J25" s="36"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
       <c r="M25" s="26"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -2120,30 +2312,30 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="92">
+        <v>38</v>
+      </c>
+      <c r="B26" s="87">
         <f>D41*-1</f>
         <v>0</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="60">
+      <c r="F26" s="58">
         <v>45383</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="121"/>
       <c r="J26" s="49"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="61"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="62"/>
+      <c r="R26" s="60"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -2156,25 +2348,25 @@
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="92">
+        <v>39</v>
+      </c>
+      <c r="B27" s="87">
         <f>E41*-1</f>
         <v>0</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="22"/>
-      <c r="F27" s="60">
+      <c r="F27" s="58">
         <v>45413</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="61"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="59"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -2196,16 +2388,16 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="22"/>
-      <c r="F28" s="60">
+      <c r="F28" s="58">
         <v>45444</v>
       </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="61"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -2227,21 +2419,21 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="22"/>
-      <c r="F29" s="60">
+      <c r="F29" s="58">
         <v>45474</v>
       </c>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="61"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="59"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="62"/>
+      <c r="R29" s="60"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -2254,25 +2446,25 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1">
       <c r="A30" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="92">
+        <v>40</v>
+      </c>
+      <c r="B30" s="87">
         <f>SUM(B24:B28)</f>
         <v>0</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="22"/>
-      <c r="F30" s="60">
+      <c r="F30" s="58">
         <v>45505</v>
       </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="61"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="59"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -2294,16 +2486,16 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="22"/>
-      <c r="F31" s="60">
+      <c r="F31" s="58">
         <v>45536</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="61"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="59"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -2321,30 +2513,30 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1">
       <c r="A32" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="60">
+      <c r="F32" s="58">
         <v>45566</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="61"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="59"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -2366,16 +2558,16 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="22"/>
-      <c r="F33" s="60">
+      <c r="F33" s="58">
         <v>45597</v>
       </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="61"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="59"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -2399,16 +2591,16 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="22"/>
-      <c r="F34" s="60">
+      <c r="F34" s="58">
         <v>45627</v>
       </c>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="61"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="59"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -2432,16 +2624,16 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="22"/>
-      <c r="F35" s="60">
+      <c r="F35" s="58">
         <v>45658</v>
       </c>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="61"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="59"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -2465,16 +2657,16 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="22"/>
-      <c r="F36" s="60">
+      <c r="F36" s="58">
         <v>45689</v>
       </c>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="61"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="59"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -2498,16 +2690,16 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="22"/>
-      <c r="F37" s="60">
+      <c r="F37" s="58">
         <v>45717</v>
       </c>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="61"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="59"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -2530,13 +2722,13 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="61"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="59"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -2558,41 +2750,41 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="103">
-        <f t="shared" ref="G39:M39" si="12">SUM(G26:G38)</f>
+      <c r="F39" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="124">
+        <f t="shared" ref="G39:M39" si="11">SUM(G26:G38)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="103">
-        <f t="shared" si="12"/>
+      <c r="H39" s="124">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I39" s="103">
-        <f t="shared" si="12"/>
+      <c r="I39" s="125">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J39" s="103">
-        <f t="shared" si="12"/>
+      <c r="J39" s="98">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K39" s="104">
-        <f t="shared" si="12"/>
+      <c r="K39" s="99">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L39" s="104">
-        <f t="shared" si="12"/>
+      <c r="L39" s="99">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M39" s="105">
-        <f t="shared" si="12"/>
+      <c r="M39" s="100">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="62"/>
+      <c r="Q39" s="60"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
@@ -2611,44 +2803,44 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="106">
-        <f t="shared" ref="G40:I40" si="13">B13</f>
+        <v>41</v>
+      </c>
+      <c r="G40" s="126">
+        <f t="shared" ref="G40:I40" si="12">B13</f>
         <v>0</v>
       </c>
-      <c r="H40" s="106">
+      <c r="H40" s="126">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="127">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="101">
+        <f>E41</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="87">
+        <f t="shared" ref="K40:L40" si="13">C41</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="87">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I40" s="106">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="106">
-        <f>E41</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="92">
-        <f t="shared" ref="K40:L40" si="14">C41</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="92">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="107">
+      <c r="M40" s="102">
         <f>D7</f>
         <v>0</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
@@ -2657,54 +2849,54 @@
       <c r="AA40" s="3"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A41" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="102">
-        <f t="shared" ref="B41:E41" si="15">SUM(B33:B40)</f>
+      <c r="A41" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="97">
+        <f t="shared" ref="B41:E41" si="14">SUM(B33:B40)</f>
         <v>0</v>
       </c>
-      <c r="C41" s="102">
+      <c r="C41" s="97">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="97">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="97">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="96">
+        <f t="shared" ref="G41:M41" si="15">G40-G39</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="96">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="D41" s="102">
+      <c r="I41" s="128">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E41" s="102">
+      <c r="J41" s="96">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F41" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" s="101">
-        <f t="shared" ref="G41:M41" si="16">G40-G39</f>
+      <c r="K41" s="97">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H41" s="101">
-        <f t="shared" si="16"/>
+      <c r="L41" s="97">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I41" s="101">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="101">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="102">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="102">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="109">
-        <f t="shared" si="16"/>
+      <c r="M41" s="103">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N41" s="3"/>
@@ -2727,21 +2919,21 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="62"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
@@ -2770,28 +2962,29 @@
       <c r="AA43" s="3"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="139"/>
+      <c r="J44" s="139"/>
+      <c r="K44" s="140"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -2809,37 +3002,40 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="87">
+        <f t="shared" ref="B45:B48" si="16">SUM(C45:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="87">
+        <f>C16</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="87">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="130">
+        <v>0</v>
+      </c>
+      <c r="F45" s="141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="92">
-        <f t="shared" ref="B45:B48" si="17">SUM(C45:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="92">
-        <f t="shared" ref="C45:D45" si="18">C20</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="92">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="92">
-        <v>0</v>
-      </c>
-      <c r="F45" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="55" t="s">
+      <c r="I45" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="J45" s="58" t="s">
-        <v>14</v>
+      <c r="J45" s="136" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="142" t="s">
+        <v>12</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -2858,31 +3054,32 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="92">
+        <v>50</v>
+      </c>
+      <c r="B46" s="87">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="87">
+        <f t="shared" ref="C46:E46" si="17">C41</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="87">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="C46" s="92">
-        <f t="shared" ref="C46:E46" si="19">C41</f>
+      <c r="E46" s="130">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="D46" s="92">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="92">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="66">
+      <c r="F46" s="143">
         <v>45383</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="26"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="142"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -2900,31 +3097,32 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="92">
-        <f t="shared" si="17"/>
+        <v>51</v>
+      </c>
+      <c r="B47" s="87">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C47" s="92">
-        <f t="shared" ref="C47:E47" si="20">C45-C46</f>
+      <c r="C47" s="87">
+        <f t="shared" ref="C47:E47" si="18">C45-C46</f>
         <v>0</v>
       </c>
-      <c r="D47" s="92">
-        <f t="shared" si="20"/>
+      <c r="D47" s="87">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E47" s="92">
-        <f t="shared" si="20"/>
+      <c r="E47" s="130">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F47" s="66">
+      <c r="F47" s="143">
         <v>45413</v>
       </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="26"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="142"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -2942,30 +3140,31 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="92">
-        <f t="shared" si="17"/>
+        <v>52</v>
+      </c>
+      <c r="B48" s="87">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="C48" s="92">
-        <f t="shared" ref="C48:D48" si="21">G21</f>
+      <c r="C48" s="87">
+        <f t="shared" ref="C48:D48" si="19">G21</f>
         <v>0</v>
       </c>
-      <c r="D48" s="92">
-        <f t="shared" si="21"/>
+      <c r="D48" s="87">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E48" s="92">
+      <c r="E48" s="130">
         <v>0</v>
       </c>
-      <c r="F48" s="66">
+      <c r="F48" s="143">
         <v>45444</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="61"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="142"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
@@ -2982,18 +3181,19 @@
       <c r="AA48" s="3"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A49" s="67"/>
+      <c r="A49" s="64"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="66">
+      <c r="E49" s="129"/>
+      <c r="F49" s="143">
         <v>45474</v>
       </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="61"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="142"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -3011,19 +3211,20 @@
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1">
       <c r="A50" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="66">
+        <v>57</v>
+      </c>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="143">
         <v>45505</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="61"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="142"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -3041,31 +3242,32 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="111">
+        <v>53</v>
+      </c>
+      <c r="B51" s="104">
         <f>SUM(C51:E51)</f>
         <v>0</v>
       </c>
-      <c r="C51" s="111">
-        <f t="shared" ref="C51:E51" si="22">C47-C48+C49+C50</f>
+      <c r="C51" s="104">
+        <f t="shared" ref="C51:E51" si="20">C47-C48+C49+C50</f>
         <v>0</v>
       </c>
-      <c r="D51" s="111">
-        <f t="shared" si="22"/>
+      <c r="D51" s="104">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E51" s="111">
-        <f t="shared" si="22"/>
+      <c r="E51" s="131">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F51" s="66">
+      <c r="F51" s="143">
         <v>45536</v>
       </c>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="61"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="142"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -3083,19 +3285,20 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1">
       <c r="A52" s="45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="66">
+      <c r="E52" s="129"/>
+      <c r="F52" s="143">
         <v>45566</v>
       </c>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="61"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="142"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -3113,22 +3316,23 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1">
       <c r="A53" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="91">
+        <v>59</v>
+      </c>
+      <c r="B53" s="86">
         <f>SUM(C53:E53)</f>
         <v>0</v>
       </c>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="66">
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="143">
         <v>45597</v>
       </c>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="61"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="120"/>
+      <c r="K53" s="142"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
@@ -3146,31 +3350,32 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1">
       <c r="A54" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="91">
+        <v>60</v>
+      </c>
+      <c r="B54" s="86">
         <f>SUM(C54:E54)</f>
         <v>0</v>
       </c>
-      <c r="C54" s="89">
+      <c r="C54" s="85">
         <f>G17</f>
         <v>0</v>
       </c>
-      <c r="D54" s="89">
+      <c r="D54" s="85">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="E54" s="89">
+      <c r="E54" s="133">
         <f>I17</f>
         <v>0</v>
       </c>
-      <c r="F54" s="66">
+      <c r="F54" s="143">
         <v>45627</v>
       </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="61"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="120"/>
+      <c r="K54" s="142"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
@@ -3188,31 +3393,32 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1">
       <c r="A55" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="118">
+        <v>59</v>
+      </c>
+      <c r="B55" s="111">
         <f>SUM(C55:E55)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="118">
+      <c r="C55" s="111">
         <f>C53-C54</f>
         <v>0</v>
       </c>
-      <c r="D55" s="118">
+      <c r="D55" s="111">
         <f>D53-D54</f>
         <v>0</v>
       </c>
-      <c r="E55" s="118">
+      <c r="E55" s="111">
         <f>E53-E54</f>
         <v>0</v>
       </c>
-      <c r="F55" s="66">
+      <c r="F55" s="143">
         <v>45658</v>
       </c>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="61"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="120"/>
+      <c r="K55" s="142"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
@@ -3229,18 +3435,19 @@
       <c r="AA55" s="3"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1">
-      <c r="B56" s="68"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="66">
+      <c r="B56" s="65"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="143">
         <v>45689</v>
       </c>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="61"/>
-      <c r="L56" s="117"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="120"/>
+      <c r="K56" s="142"/>
+      <c r="L56" s="110"/>
       <c r="M56" s="49"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -3258,33 +3465,34 @@
       <c r="AA56" s="3"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A57" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="111">
+      <c r="A57" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="104">
         <f>SUM(C57:E57)</f>
         <v>0</v>
       </c>
-      <c r="C57" s="92">
+      <c r="C57" s="87">
         <f>C51-C55</f>
         <v>0</v>
       </c>
-      <c r="D57" s="92">
+      <c r="D57" s="87">
         <f>D51-D55</f>
         <v>0</v>
       </c>
-      <c r="E57" s="92">
+      <c r="E57" s="130">
         <f>E51-E55</f>
         <v>0</v>
       </c>
-      <c r="F57" s="66">
+      <c r="F57" s="143">
         <v>45717</v>
       </c>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="61"/>
-      <c r="L57" s="117"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="120"/>
+      <c r="K57" s="142"/>
+      <c r="L57" s="110"/>
       <c r="M57" s="49"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -3305,13 +3513,14 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="61"/>
-      <c r="L58" s="117"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="144"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="142"/>
+      <c r="L58" s="110"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
@@ -3328,31 +3537,35 @@
       <c r="AA58" s="3"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A59" s="71"/>
-      <c r="B59" s="80"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="76"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="106">
+      <c r="E59" s="129"/>
+      <c r="F59" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="126">
         <f>SUM(G46:G58)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="106">
+      <c r="H59" s="126">
         <f>SUM(H46:H58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="106">
+      <c r="I59" s="126">
         <f>SUM(I46:I58)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="107">
+      <c r="J59" s="126">
         <f>SUM(J46:J58)</f>
         <v>0</v>
       </c>
-      <c r="L59" s="117"/>
+      <c r="K59" s="127">
+        <f>SUM(K46:K58)</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="110"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
@@ -3369,14 +3582,18 @@
       <c r="AA59" s="3"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A60" s="71"/>
-      <c r="B60" s="80"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="76"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="21"/>
-      <c r="J60" s="26"/>
-      <c r="L60" s="117"/>
+      <c r="E60" s="129"/>
+      <c r="F60" s="145"/>
+      <c r="G60" s="135"/>
+      <c r="H60" s="135"/>
+      <c r="I60" s="135"/>
+      <c r="J60" s="118"/>
+      <c r="K60" s="142"/>
+      <c r="L60" s="110"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
@@ -3393,16 +3610,17 @@
       <c r="AA60" s="3"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A61" s="71"/>
+      <c r="A61" s="67"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="61"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="120"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="120"/>
+      <c r="K61" s="142"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -3419,23 +3637,28 @@
       <c r="AA61" s="3"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1">
-      <c r="F62" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G62" s="106">
-        <f>B20+D7</f>
+      <c r="E62" s="135"/>
+      <c r="F62" s="145" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="126">
+        <f>B16+D7</f>
         <v>0</v>
       </c>
-      <c r="H62" s="106">
-        <f>C20</f>
+      <c r="H62" s="126">
+        <f>C16</f>
         <v>0</v>
       </c>
-      <c r="I62" s="106">
-        <f>D20</f>
+      <c r="I62" s="126">
+        <f>D16</f>
         <v>0</v>
       </c>
-      <c r="J62" s="107">
+      <c r="J62" s="126">
         <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="127">
+        <f>E7</f>
         <v>0</v>
       </c>
       <c r="N62" s="3"/>
@@ -3457,24 +3680,28 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" s="108">
-        <f t="shared" ref="G63:J63" si="23">G62-G59</f>
+      <c r="E63" s="129"/>
+      <c r="F63" s="146" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" s="147">
+        <f t="shared" ref="G63:J63" si="21">G62-G59</f>
         <v>0</v>
       </c>
-      <c r="H63" s="108">
-        <f t="shared" si="23"/>
+      <c r="H63" s="147">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I63" s="108">
-        <f t="shared" si="23"/>
+      <c r="I63" s="147">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="J63" s="110">
-        <f t="shared" si="23"/>
+      <c r="J63" s="147">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="148">
+        <f t="shared" ref="K63" si="22">K62-K59</f>
         <v>0</v>
       </c>
       <c r="N63" s="3"/>
@@ -3493,15 +3720,15 @@
       <c r="AA63" s="3"/>
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A64" s="78"/>
-      <c r="B64" s="79"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
+      <c r="A64" s="74"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
       <c r="J64" s="36"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -3519,15 +3746,15 @@
       <c r="AA64" s="3"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A65" s="81"/>
-      <c r="B65" s="79"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
+      <c r="A65" s="77"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
       <c r="J65" s="36"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -3545,11 +3772,11 @@
       <c r="AA65" s="3"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A66" s="81"/>
-      <c r="B66" s="79"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
+      <c r="A66" s="77"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
@@ -3566,11 +3793,11 @@
       <c r="AA66" s="3"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A67" s="81"/>
-      <c r="B67" s="79"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
+      <c r="A67" s="77"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
@@ -3587,12 +3814,12 @@
       <c r="AA67" s="3"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A68" s="83"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="G68" s="73"/>
+      <c r="A68" s="79"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
+      <c r="G68" s="69"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
@@ -3609,12 +3836,12 @@
       <c r="AA68" s="3"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A69" s="85"/>
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="G69" s="73"/>
+      <c r="A69" s="81"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="G69" s="69"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
@@ -3631,12 +3858,12 @@
       <c r="AA69" s="3"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A70" s="86"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="78"/>
-      <c r="E70" s="78"/>
-      <c r="G70" s="73"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="G70" s="69"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
@@ -3653,12 +3880,12 @@
       <c r="AA70" s="3"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A71" s="87"/>
-      <c r="B71" s="88"/>
-      <c r="C71" s="88"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="88"/>
-      <c r="G71" s="73"/>
+      <c r="A71" s="83"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="G71" s="69"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
@@ -3675,11 +3902,11 @@
       <c r="AA71" s="3"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A72" s="78"/>
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
+      <c r="A72" s="74"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
@@ -3696,11 +3923,11 @@
       <c r="AA72" s="3"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A73" s="78"/>
-      <c r="B73" s="79"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
+      <c r="A73" s="74"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
@@ -3717,11 +3944,11 @@
       <c r="AA73" s="3"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A74" s="78"/>
-      <c r="B74" s="79"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
+      <c r="A74" s="74"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="75"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
@@ -3738,11 +3965,11 @@
       <c r="AA74" s="3"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A75" s="78"/>
-      <c r="B75" s="79"/>
-      <c r="C75" s="79"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
+      <c r="A75" s="74"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
@@ -3759,11 +3986,11 @@
       <c r="AA75" s="3"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A76" s="78"/>
-      <c r="B76" s="79"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
+      <c r="A76" s="74"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
@@ -3780,11 +4007,11 @@
       <c r="AA76" s="3"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A77" s="78"/>
-      <c r="B77" s="79"/>
-      <c r="C77" s="79"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="79"/>
+      <c r="A77" s="74"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
